--- a/E2M2-2020/Rosters/Bootcamp-Roster-2020.xlsx
+++ b/E2M2-2020/Rosters/Bootcamp-Roster-2020.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/Documents/R/R_repositories/E2M2/E2M2-2020/Rosters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{324B48D4-0972-0744-A49A-1B24C6ECAE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119529B1-913A-2C40-8BA0-BDA0BFEAD1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16260" xr2:uid="{DE1BEA72-50E3-C14F-8AB5-A34961DE86AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,11 +30,367 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Will Attend Bootcamp?</t>
+  </si>
+  <si>
+    <t>R-Bootcamp-Saturday</t>
+  </si>
+  <si>
+    <t>R-Bootcamp-Sunday</t>
+  </si>
+  <si>
+    <t>FELAMBININTSOA CATHUCIA</t>
+  </si>
+  <si>
+    <t>ANDRIAMIHAJA</t>
+  </si>
+  <si>
+    <t>cathucia01@gmail.com</t>
+  </si>
+  <si>
+    <t>0 34 64 263 00</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Fandresena</t>
+  </si>
+  <si>
+    <t>RAKOTOARIMALALA</t>
+  </si>
+  <si>
+    <t>fandresenarak@gmail.com</t>
+  </si>
+  <si>
+    <t>+ 261 34 74 371 77</t>
+  </si>
+  <si>
+    <t> 1</t>
+  </si>
+  <si>
+    <t>Démétrius Ella Delphine</t>
+  </si>
+  <si>
+    <t>HARISOAMALALA</t>
+  </si>
+  <si>
+    <t>demetriusella@gmail.com</t>
+  </si>
+  <si>
+    <t>Laurence Adel</t>
+  </si>
+  <si>
+    <t>RASOAMIHAINGO</t>
+  </si>
+  <si>
+    <t>mihlaurence@gmail.com</t>
+  </si>
+  <si>
+    <t>0328781855 / 0347508639</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>RAVELOSON</t>
+  </si>
+  <si>
+    <t>l.raveloson@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Sylviane</t>
+  </si>
+  <si>
+    <t>MIHARISOA</t>
+  </si>
+  <si>
+    <t>miharisoasylviane@gmail.com</t>
+  </si>
+  <si>
+    <t>Harinirina Aina</t>
+  </si>
+  <si>
+    <t>RABEMANANJARA</t>
+  </si>
+  <si>
+    <t>harinirina@pasteur.mg</t>
+  </si>
+  <si>
+    <t>Mihajatiana tsantaniaina Faliravo</t>
+  </si>
+  <si>
+    <t>Raelison</t>
+  </si>
+  <si>
+    <t>faliravoraelison@gmail.com</t>
+  </si>
+  <si>
+    <t>(034) 355-6157</t>
+  </si>
+  <si>
+    <t>Daniel Vonisoa</t>
+  </si>
+  <si>
+    <t>RAFIDIMANANA</t>
+  </si>
+  <si>
+    <t>dagavon@gmail.com</t>
+  </si>
+  <si>
+    <t>Sedera Radoniaina</t>
+  </si>
+  <si>
+    <t>RAKOTONDRASOA</t>
+  </si>
+  <si>
+    <t>sederarado.srr@gmail.com</t>
+  </si>
+  <si>
+    <t>Lovasoa Manuelle Sylviane</t>
+  </si>
+  <si>
+    <t>Rakotozafy</t>
+  </si>
+  <si>
+    <t>lovasylvian@gmail.com</t>
+  </si>
+  <si>
+    <t>(032) 691-8097</t>
+  </si>
+  <si>
+    <t>Claude Jacquot</t>
+  </si>
+  <si>
+    <t>Ralazampirenena</t>
+  </si>
+  <si>
+    <t>cjmpirenena@gmail.com</t>
+  </si>
+  <si>
+    <t>(034) 043-9445</t>
+  </si>
+  <si>
+    <t>Finaritra</t>
+  </si>
+  <si>
+    <t>Randimbiarison</t>
+  </si>
+  <si>
+    <t>fiforme4@gmail.com</t>
+  </si>
+  <si>
+    <t>romario</t>
+  </si>
+  <si>
+    <t>randriatsarazafy</t>
+  </si>
+  <si>
+    <t>romariorandria@gmail.com</t>
+  </si>
+  <si>
+    <t>(034) 479-2404</t>
+  </si>
+  <si>
+    <t>Miary</t>
+  </si>
+  <si>
+    <t>RASELIMANANA</t>
+  </si>
+  <si>
+    <t>miaryras@gmail.com</t>
+  </si>
+  <si>
+    <t>+261 34 40 506 30</t>
+  </si>
+  <si>
+    <t>Fanohinjanaharinirina</t>
+  </si>
+  <si>
+    <t>RASOAMALALA</t>
+  </si>
+  <si>
+    <t>f.rasoamalala@pasteur.mg</t>
+  </si>
+  <si>
+    <t>(034) 203-0694</t>
+  </si>
+  <si>
+    <t>Hoby Ambinintsoa </t>
+  </si>
+  <si>
+    <t>Rasoanaivo </t>
+  </si>
+  <si>
+    <t>hobintsoanaivo@gmail.com</t>
+  </si>
+  <si>
+    <t>(034) 061-2646</t>
+  </si>
+  <si>
+    <t>Hajaniaina</t>
+  </si>
+  <si>
+    <t>Rasoloarison</t>
+  </si>
+  <si>
+    <t>hrasoloarison@wcs.org</t>
+  </si>
+  <si>
+    <t>RILA</t>
+  </si>
+  <si>
+    <t>RATOVOSON</t>
+  </si>
+  <si>
+    <t>RILARATOV@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>+261 34 09 128 55</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Raveloaritiana</t>
+  </si>
+  <si>
+    <t>eraveloaritiana@gmail.com</t>
+  </si>
+  <si>
+    <t>Ny Anjara Fifi</t>
+  </si>
+  <si>
+    <t>Ravelomanantsoa</t>
+  </si>
+  <si>
+    <t>ravelomanantsoafifi@gmail.com</t>
+  </si>
+  <si>
+    <t>+261 34 99 203 84</t>
+  </si>
+  <si>
+    <t>Santatriniaina Fitiavana</t>
+  </si>
+  <si>
+    <t>Randrianarisoa</t>
+  </si>
+  <si>
+    <t>santatrarandria6@gmail.com</t>
+  </si>
+  <si>
+    <t>+261 34 43 227 97</t>
+  </si>
+  <si>
+    <t>Marie Rolande </t>
+  </si>
+  <si>
+    <t>Soazafy </t>
+  </si>
+  <si>
+    <t>rolandesoa@yahoo.fr</t>
+  </si>
+  <si>
+    <t>(032) 247-9121</t>
+  </si>
+  <si>
+    <t>Cédrique</t>
+  </si>
+  <si>
+    <t>Solofondranohatra</t>
+  </si>
+  <si>
+    <t>lovacedrique@gmail.com</t>
+  </si>
+  <si>
+    <t>(033) 185-6864</t>
+  </si>
+  <si>
+    <t>Chazal Tatamoniaina</t>
+  </si>
+  <si>
+    <t>VOLOLONTSOA</t>
+  </si>
+  <si>
+    <t>ainatatamo@gmail.com</t>
+  </si>
+  <si>
+    <t>RASOMA RAHANTAVOLOLONA</t>
+  </si>
+  <si>
+    <t>Vonimanitra Juliana</t>
+  </si>
+  <si>
+    <t>julianavony@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,7 +405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -57,12 +413,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +817,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEF90D-4423-974B-9AD5-85B080835DA3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2613468955</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="5">
+        <v>261000000000</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>